--- a/VENDEDOR MATRICES.xlsx
+++ b/VENDEDOR MATRICES.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\poo\TiendaOnline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BA8DAAC-CE3A-40AE-B53F-25768B4066B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{994F9CFE-DF1C-4897-8DD0-AF8238F97AF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>D</t>
   </si>
@@ -36,12 +35,6 @@
   </si>
   <si>
     <t>FACTURAR PEDIDO</t>
-  </si>
-  <si>
-    <t>AUTOR</t>
-  </si>
-  <si>
-    <t>DUVAL MUÑOZ/DAVID MOSQUERA</t>
   </si>
   <si>
     <t>DEPENDENCIA</t>
@@ -173,8 +166,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,18 +177,11 @@
     </font>
     <font>
       <sz val="9.6"/>
-      <color rgb="FFECECEC"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.6"/>
-      <color rgb="FFECECEC"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,18 +190,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -224,155 +204,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFE3E3E3"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFE3E3E3"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFE3E3E3"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE3E3E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE3E3E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE3E3E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE3E3E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE3E3E3"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE3E3E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE3E3E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE3E3E3"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE3E3E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE3E3E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE3E3E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE3E3E3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE3E3E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE3E3E3"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,11 +546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99FA265-0979-4BB0-9D39-867BED2F0B6A}">
-  <dimension ref="B1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B2" sqref="B2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,133 +559,125 @@
     <col min="3" max="3" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B8:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0538266C-6113-44D0-BC39-6B8EA39161E5}">
-  <dimension ref="B1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B2" sqref="B2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,133 +686,125 @@
     <col min="3" max="3" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11" t="s">
+    </row>
+    <row r="7" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="15" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="13" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
-      <c r="C13" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B8:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07B451F-0338-4F34-94BA-B6E3BD4B2A83}">
-  <dimension ref="B1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+      <selection activeCell="B2" sqref="B2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,117 +813,109 @@
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="13" t="s">
+    <row r="8" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="15" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B8:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>